--- a/biology/Botanique/Armand_Claude_Mollet/Armand_Claude_Mollet.xlsx
+++ b/biology/Botanique/Armand_Claude_Mollet/Armand_Claude_Mollet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Armand-Claude Mollet est un architecte français, né à Paris en 1660, et mort à Paris, dans son logement du Louvre, le 23 janvier 1742[1].
+Armand-Claude Mollet est un architecte français, né à Paris en 1660, et mort à Paris, dans son logement du Louvre, le 23 janvier 1742.
 </t>
         </is>
       </c>
@@ -512,17 +524,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est issu d'une célèbre dynastie de jardiniers, fils de Charles Mollet, jardinier au Louvre, petit-fils de Claude II Mollet et arrière-petit-fils de Claude I Mollet. La charge de dessinateur des jardins du roi lui revient après la mort de son père, mais il préfère se tourner vers l'architecture[2], et entre à l'Académie royale d'architecture en 1699.
-En 1692 lui a accordé la charge de jardinier du Petit Jardin devant le château du Louvre par démission de son père, Charles Mollet, sous condition de survivance au profit de son fils[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est issu d'une célèbre dynastie de jardiniers, fils de Charles Mollet, jardinier au Louvre, petit-fils de Claude II Mollet et arrière-petit-fils de Claude I Mollet. La charge de dessinateur des jardins du roi lui revient après la mort de son père, mais il préfère se tourner vers l'architecture, et entre à l'Académie royale d'architecture en 1699.
+En 1692 lui a accordé la charge de jardinier du Petit Jardin devant le château du Louvre par démission de son père, Charles Mollet, sous condition de survivance au profit de son fils.
 Il a construit l'hôtel d'Humières, vers 1716. Cet hôtel a été démoli en 1905.
-En 1718, il vend un terrain en sa possession, dans le faubourg Saint-Honoré, à Louis Henri de La Tour d'Auvergne, comte d'Évreux, qui le charge de construire un hôtel, édifié et décoré entre 1718 et 1722[4] : c'est le futur palais de l'Élysée. Il est également intervenu sur différents hôtels particuliers à Paris[5].
+En 1718, il vend un terrain en sa possession, dans le faubourg Saint-Honoré, à Louis Henri de La Tour d'Auvergne, comte d'Évreux, qui le charge de construire un hôtel, édifié et décoré entre 1718 et 1722 : c'est le futur palais de l'Élysée. Il est également intervenu sur différents hôtels particuliers à Paris.
 En 1723 il est l'architecte de l'hôtel Bataille de Francès, place Vendôme.
-Il a construit le château de Stains pour Toussaint Bellanger (vers 1662-1740), garde du Sceau de la chancellerie de France après avoir été notaire au Châtelet de Paris entre 1690 et 1710. Ce dernier avait acquis la seigneurie de Stains de Charles-Louis Félix le 13 mai 1714[6].
+Il a construit le château de Stains pour Toussaint Bellanger (vers 1662-1740), garde du Sceau de la chancellerie de France après avoir été notaire au Châtelet de Paris entre 1690 et 1710. Ce dernier avait acquis la seigneurie de Stains de Charles-Louis Félix le 13 mai 1714.
 Chevalier de l'ordre de Saint-Michel le 11 mai 1732.
-Il s'est marié en 1691 avec Françoise-Andrée Bombe, nièce de Françoise Langlois mariée à André Le Nôtre[7]. De cette union sont nés six enfants, dont deux fils architectes, André-Armand Mollet et Louis-François Mollet, deux autres ont été abbés, le cadet, Mathieu était gentilhomme, maréchal des logis de la Reine. Sa fille, Françoise Toussaint Mollet, a été mariée avec Jules-Martin Desjardins, sculpteur du roi, décédée le 3 décembre 1750[8].
-Armand Claude Mollet était logé par le roi à Paris et à Versailles, respectivement dans un logement au Louvre et à l'hôtel de Seignelay. Il était propriétaire d'une maison de campagne aux Moulineaux, au bas Meudon[9].
+Il s'est marié en 1691 avec Françoise-Andrée Bombe, nièce de Françoise Langlois mariée à André Le Nôtre. De cette union sont nés six enfants, dont deux fils architectes, André-Armand Mollet et Louis-François Mollet, deux autres ont été abbés, le cadet, Mathieu était gentilhomme, maréchal des logis de la Reine. Sa fille, Françoise Toussaint Mollet, a été mariée avec Jules-Martin Desjardins, sculpteur du roi, décédée le 3 décembre 1750.
+Armand Claude Mollet était logé par le roi à Paris et à Versailles, respectivement dans un logement au Louvre et à l'hôtel de Seignelay. Il était propriétaire d'une maison de campagne aux Moulineaux, au bas Meudon.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hôtel Bataille de Francès, construit en 1705.
@@ -586,7 +602,9 @@
           <t>Généalogie simplifiée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les généalogies de la famille Mollet données dans les livres de Dominique Garrigues, Jardins et jardiniers de Versailles au grand siècle, p. 309-310, et de Patricia Bouchenot-Déchin, André Le Nôtre, sont différentes. Le début de l'arbre proposé est celui de Dominique Garrigues, la fin, celui de Patricia Bouchenot-Déchin.
 </t>
